--- a/попытка взломать инвертор мэи - скорость.xlsx
+++ b/попытка взломать инвертор мэи - скорость.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD49FF98-6A4D-4512-B58F-C363B181409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9B3E35-0279-4100-A071-38383A89B3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A2A3DE0-DAD0-4E60-B84D-A186A537FB36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0A2A3DE0-DAD0-4E60-B84D-A186A537FB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="105">
   <si>
     <t>C8</t>
   </si>
@@ -93,16 +94,281 @@
   </si>
   <si>
     <t>3F</t>
+  </si>
+  <si>
+    <t>C8  42</t>
+  </si>
+  <si>
+    <t>48  43</t>
+  </si>
+  <si>
+    <t>96  43</t>
+  </si>
+  <si>
+    <t>C8  43</t>
+  </si>
+  <si>
+    <t>FA  43</t>
+  </si>
+  <si>
+    <t>16  44</t>
+  </si>
+  <si>
+    <t>2F  44</t>
+  </si>
+  <si>
+    <t>48  44</t>
+  </si>
+  <si>
+    <t>61  44</t>
+  </si>
+  <si>
+    <t>7A  44</t>
+  </si>
+  <si>
+    <t>00  00</t>
+  </si>
+  <si>
+    <t>C8  C2</t>
+  </si>
+  <si>
+    <t>48  C3</t>
+  </si>
+  <si>
+    <t>96  C3</t>
+  </si>
+  <si>
+    <t>C8  C3</t>
+  </si>
+  <si>
+    <t>FA  C3</t>
+  </si>
+  <si>
+    <t>16  C4</t>
+  </si>
+  <si>
+    <t>2F  C4</t>
+  </si>
+  <si>
+    <t>48  C4</t>
+  </si>
+  <si>
+    <t>61  C4</t>
+  </si>
+  <si>
+    <t>7A  C4</t>
+  </si>
+  <si>
+    <t>48  42</t>
+  </si>
+  <si>
+    <t>A0  40</t>
+  </si>
+  <si>
+    <t>00  40</t>
+  </si>
+  <si>
+    <t>80  3F</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>41200000</t>
+  </si>
+  <si>
+    <t>41A00000</t>
+  </si>
+  <si>
+    <t>41F00000</t>
+  </si>
+  <si>
+    <t>42200000</t>
+  </si>
+  <si>
+    <t>42480000</t>
+  </si>
+  <si>
+    <t>42700000</t>
+  </si>
+  <si>
+    <t>428C0000</t>
+  </si>
+  <si>
+    <t>42A00000</t>
+  </si>
+  <si>
+    <t>42B40000</t>
+  </si>
+  <si>
+    <t>42C80000</t>
+  </si>
+  <si>
+    <t>43480000</t>
+  </si>
+  <si>
+    <t>43960000</t>
+  </si>
+  <si>
+    <t>43C80000</t>
+  </si>
+  <si>
+    <t>43FA0000</t>
+  </si>
+  <si>
+    <t>44160000</t>
+  </si>
+  <si>
+    <t>442F0000</t>
+  </si>
+  <si>
+    <t>44480000</t>
+  </si>
+  <si>
+    <t>44610000</t>
+  </si>
+  <si>
+    <t>447A0000</t>
+  </si>
+  <si>
+    <t>44BB8000</t>
+  </si>
+  <si>
+    <t>453B8000</t>
+  </si>
+  <si>
+    <t>457A0000</t>
+  </si>
+  <si>
+    <t>459C4000</t>
+  </si>
+  <si>
+    <t>45BB8000</t>
+  </si>
+  <si>
+    <t>45DAC000</t>
+  </si>
+  <si>
+    <t>45FA0000</t>
+  </si>
+  <si>
+    <t>C2C80000</t>
+  </si>
+  <si>
+    <t>C3480000</t>
+  </si>
+  <si>
+    <t>C3960000</t>
+  </si>
+  <si>
+    <t>C3C80000</t>
+  </si>
+  <si>
+    <t>C3FA0000</t>
+  </si>
+  <si>
+    <t>C4160000</t>
+  </si>
+  <si>
+    <t>C42F0000</t>
+  </si>
+  <si>
+    <t>C4480000</t>
+  </si>
+  <si>
+    <t>C4610000</t>
+  </si>
+  <si>
+    <t>C47A0000</t>
+  </si>
+  <si>
+    <t>C4FA0000</t>
+  </si>
+  <si>
+    <t>C53B8000</t>
+  </si>
+  <si>
+    <t>C57A0000</t>
+  </si>
+  <si>
+    <t>C59C4000</t>
+  </si>
+  <si>
+    <t>C5BB8000</t>
+  </si>
+  <si>
+    <t>C5DAC000</t>
+  </si>
+  <si>
+    <t>C5FA0000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -129,9 +395,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -147,6 +414,945 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13425109361329834"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.85219685039370074"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$J$2:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>182272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215040</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>235008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>247808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>260608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>267776</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>274176</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>280576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>286976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293376</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>310144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>342912</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>358912</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>367680</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>375680</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>383680</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>391680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2599-42F8-A54F-97EDC1D157C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="125776511"/>
+        <c:axId val="125774431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="125776511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125774431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125774431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125776511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F34201-BA4E-4016-9CBF-10F3271E6DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B3F0D2-EA01-4524-AC11-1710B4CC2EE1}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +1665,7 @@
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,12 +1691,24 @@
         <f>HEX2DEC("8C")</f>
         <v>140</v>
       </c>
-      <c r="N1">
-        <f>HEX2DEC("8C4")</f>
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="str">
+        <f>A1&amp;B1</f>
+        <v>C842</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <f>B1&amp;A1</f>
+        <v>42C8</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>N1&amp;"="&amp;H1</f>
+        <v>C842=100</v>
+      </c>
+      <c r="R1" t="str">
+        <f>O1&amp;"="&amp;H1</f>
+        <v>42C8=100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -516,12 +1734,24 @@
         <f>HEX2DEC("84")</f>
         <v>132</v>
       </c>
-      <c r="O2">
-        <f>F2-F1</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N2" s="1" t="str">
+        <f t="shared" ref="N2:N26" si="3">A2&amp;B2</f>
+        <v>4843</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f t="shared" ref="O2:O26" si="4">B2&amp;A2</f>
+        <v>4348</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q26" si="5">N2&amp;"="&amp;H2</f>
+        <v>4843=200</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" ref="R2:R26" si="6">O2&amp;"="&amp;H2</f>
+        <v>4348=200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -547,12 +1777,24 @@
         <f>HEX2DEC("69")</f>
         <v>105</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O10" si="3">F3-F2</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>9643</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>4396</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="5"/>
+        <v>9643=300</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="6"/>
+        <v>4396=300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,15 +1817,27 @@
         <v>200</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L26" si="4">HEX2DEC("8C")</f>
+        <f t="shared" ref="L4:L26" si="7">HEX2DEC("8C")</f>
         <v>140</v>
       </c>
-      <c r="O4">
+      <c r="N4" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>C843</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>43C8</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="5"/>
+        <v>C843=400</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="6"/>
+        <v>43C8=400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,15 +1860,27 @@
         <v>250</v>
       </c>
       <c r="L5">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FA43</v>
+      </c>
+      <c r="O5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43FA</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="5"/>
+        <v>FA43=500</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="6"/>
+        <v>43FA=500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,15 +1903,27 @@
         <v>22</v>
       </c>
       <c r="L6">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1644</v>
+      </c>
+      <c r="O6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4416</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="5"/>
+        <v>1644=600</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="6"/>
+        <v>4416=600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -668,15 +1946,27 @@
         <v>47</v>
       </c>
       <c r="L7">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2F44</v>
+      </c>
+      <c r="O7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>442F</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="5"/>
+        <v>2F44=700</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="6"/>
+        <v>442F=700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -699,15 +1989,27 @@
         <v>72</v>
       </c>
       <c r="L8">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4844</v>
+      </c>
+      <c r="O8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4448</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="5"/>
+        <v>4844=800</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="6"/>
+        <v>4448=800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -730,15 +2032,27 @@
         <v>97</v>
       </c>
       <c r="L9">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>6144</v>
+      </c>
+      <c r="O9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4461</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="5"/>
+        <v>6144=900</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="6"/>
+        <v>4461=900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -761,15 +2075,27 @@
         <v>122</v>
       </c>
       <c r="L10">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>7A44</v>
+      </c>
+      <c r="O10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>447A</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="5"/>
+        <v>7A44=1000</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="6"/>
+        <v>447A=1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -792,11 +2118,27 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="O11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0000</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="5"/>
+        <v>0000=0</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="6"/>
+        <v>0000=0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,11 +2161,27 @@
         <v>200</v>
       </c>
       <c r="L12">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C8C2</v>
+      </c>
+      <c r="O12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>C2C8</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="5"/>
+        <v>C8C2=-100</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="6"/>
+        <v>C2C8=-100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,11 +2204,27 @@
         <v>72</v>
       </c>
       <c r="L13">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>48C3</v>
+      </c>
+      <c r="O13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>C348</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="5"/>
+        <v>48C3=-200</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="6"/>
+        <v>C348=-200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,11 +2247,27 @@
         <v>150</v>
       </c>
       <c r="L14">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>96C3</v>
+      </c>
+      <c r="O14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>C396</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="5"/>
+        <v>96C3=-300</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="6"/>
+        <v>C396=-300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,11 +2290,27 @@
         <v>200</v>
       </c>
       <c r="L15">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C8C3</v>
+      </c>
+      <c r="O15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>C3C8</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="5"/>
+        <v>C8C3=-400</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="6"/>
+        <v>C3C8=-400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,11 +2333,27 @@
         <v>250</v>
       </c>
       <c r="L16">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>FAC3</v>
+      </c>
+      <c r="O16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>C3FA</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="5"/>
+        <v>FAC3=-500</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="6"/>
+        <v>C3FA=-500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,11 +2376,27 @@
         <v>22</v>
       </c>
       <c r="L17">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>16C4</v>
+      </c>
+      <c r="O17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>C416</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="5"/>
+        <v>16C4=-600</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="6"/>
+        <v>C416=-600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -981,11 +2419,27 @@
         <v>47</v>
       </c>
       <c r="L18">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2FC4</v>
+      </c>
+      <c r="O18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>C42F</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="5"/>
+        <v>2FC4=-700</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="6"/>
+        <v>C42F=-700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1008,11 +2462,27 @@
         <v>72</v>
       </c>
       <c r="L19">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>48C4</v>
+      </c>
+      <c r="O19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>C448</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="5"/>
+        <v>48C4=-800</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="6"/>
+        <v>C448=-800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,11 +2505,27 @@
         <v>97</v>
       </c>
       <c r="L20">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>61C4</v>
+      </c>
+      <c r="O20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>C461</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="5"/>
+        <v>61C4=-900</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="6"/>
+        <v>C461=-900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,11 +2548,27 @@
         <v>122</v>
       </c>
       <c r="L21">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>7AC4</v>
+      </c>
+      <c r="O21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>C47A</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="5"/>
+        <v>7AC4=-1000</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="6"/>
+        <v>C47A=-1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1089,11 +2591,27 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="O22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0000</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="5"/>
+        <v>0000=0</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="6"/>
+        <v>0000=0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1116,11 +2634,27 @@
         <v>72</v>
       </c>
       <c r="L23">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4842</v>
+      </c>
+      <c r="O23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4248</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="5"/>
+        <v>4842=50</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="6"/>
+        <v>4248=50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1143,11 +2677,27 @@
         <v>160</v>
       </c>
       <c r="L24">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>A040</v>
+      </c>
+      <c r="O24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>40A0</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="5"/>
+        <v>A040=20</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="6"/>
+        <v>40A0=20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,11 +2720,27 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0040</v>
+      </c>
+      <c r="O25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="5"/>
+        <v>0040=2</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="6"/>
+        <v>4000=2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +2763,1428 @@
         <v>128</v>
       </c>
       <c r="L26">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>803F</v>
+      </c>
+      <c r="O26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>3F80</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="5"/>
+        <v>803F=1</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="6"/>
+        <v>3F80=1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5507F89-57B8-4DB0-BE7B-76B487D37713}">
+  <dimension ref="B1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>E2&amp;C2&amp;B2</f>
+        <v>00000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J45" si="0">HEX2DEC(H2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H45" si="1">E3&amp;C3&amp;B3</f>
+        <v>12000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>73728</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1A000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>106496</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1F000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>126976</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>139264</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>24800</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>149504</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>159744</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>28C00</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>166912</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2A000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>172032</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2B400</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>177152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2C800</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>182272</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>34800</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>215040</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>39600</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>235008</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15">
+        <v>400</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3C800</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>247808</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3FA00</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>260608</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>41600</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>267776</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18">
+        <v>700</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>42F00</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>274176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19">
+        <v>800</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>44800</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>280576</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20">
+        <v>900</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>46100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>286976</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>47A00</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>293376</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22">
+        <v>1500</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4BB80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>310144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>53B80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>342912</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24">
+        <v>4000</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>57A00</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>358912</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25">
+        <v>5000</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>59C40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>367680</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26">
+        <v>6000</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5BB80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>375680</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27">
+        <v>7000</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5DAC0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>383680</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28">
+        <v>8000</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5FA00</v>
+      </c>
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>391680</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29">
+        <v>-100</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2C800</v>
+      </c>
+      <c r="I29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>182272</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30">
+        <v>-200</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>34800</v>
+      </c>
+      <c r="I30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>215040</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31">
+        <v>-300</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>39600</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>235008</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3C800</v>
+      </c>
+      <c r="I32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>247808</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3FA00</v>
+      </c>
+      <c r="I33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>260608</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34">
+        <v>-600</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>41600</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>267776</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>42F00</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>274176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36">
+        <v>-800</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>44800</v>
+      </c>
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>280576</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <v>-900</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>46100</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>286976</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38">
+        <v>-1000</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>47A00</v>
+      </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>293376</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-2000</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4FA00</v>
+      </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>326144</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40">
+        <v>-3000</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>53B80</v>
+      </c>
+      <c r="I40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>342912</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41">
+        <v>-4000</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>57A00</v>
+      </c>
+      <c r="I41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>358912</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42">
+        <v>-5000</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>59C40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>94</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>367680</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43">
+        <v>-6000</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5BB80</v>
+      </c>
+      <c r="I43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>375680</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44">
+        <v>-7000</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5DAC0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>383680</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45">
+        <v>-8000</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5FA00</v>
+      </c>
+      <c r="I45" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>391680</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89F81D7-6169-4E8B-A115-F52EF5F4A4A3}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
